--- a/data/trans_bre/P10_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 8,53</t>
+          <t>-1,14; 9,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 14,88</t>
+          <t>-1,14; 15,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 16,53</t>
+          <t>1,05; 16,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,1</t>
+          <t>-0,41; 11,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 1290,04</t>
+          <t>-46,94; 922,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 359,26</t>
+          <t>-16,05; 354,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 621,69</t>
+          <t>-15,99; 567,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 455,8</t>
+          <t>-13,91; 433,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,75</t>
+          <t>-0,5; 4,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,4</t>
+          <t>4,97; 12,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,0</t>
+          <t>3,0; 9,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,63</t>
+          <t>2,16; 7,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 132,29</t>
+          <t>-11,44; 141,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,68; 249,87</t>
+          <t>59,71; 246,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,5; 216,04</t>
+          <t>39,42; 222,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 181,77</t>
+          <t>27,94; 171,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,02</t>
+          <t>-0,77; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,52</t>
+          <t>4,64; 10,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,61</t>
+          <t>4,57; 9,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,38</t>
+          <t>3,94; 8,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 79,92</t>
+          <t>-12,74; 78,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,01; 147,86</t>
+          <t>46,44; 154,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,64; 238,0</t>
+          <t>78,01; 253,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,64; 212,92</t>
+          <t>64,16; 212,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,2</t>
+          <t>2,67; 9,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,94</t>
+          <t>4,71; 11,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,4</t>
+          <t>4,09; 10,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,35</t>
+          <t>-2,5; 5,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 156,63</t>
+          <t>28,29; 166,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,03; 266,69</t>
+          <t>61,02; 263,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 223,78</t>
+          <t>52,47; 220,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 73,44</t>
+          <t>-22,62; 79,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,43</t>
+          <t>1,25; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,69</t>
+          <t>4,11; 9,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,47</t>
+          <t>1,36; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,15</t>
+          <t>4,83; 10,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 116,05</t>
+          <t>15,56; 124,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,15; 155,71</t>
+          <t>46,69; 160,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 99,63</t>
+          <t>14,85; 99,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,03; 217,12</t>
+          <t>69,12; 216,83</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>2,13; 4,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,98</t>
+          <t>5,9; 9,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,54</t>
+          <t>4,61; 7,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,82</t>
+          <t>3,86; 6,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,78; 87,28</t>
+          <t>31,47; 85,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,56; 141,47</t>
+          <t>74,76; 139,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,69; 139,29</t>
+          <t>69,08; 136,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,22; 122,55</t>
+          <t>55,26; 121,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P10_1_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 9,48</t>
+          <t>-1,44; 8,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 15,45</t>
+          <t>-1,25; 14,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 16,21</t>
+          <t>0,73; 16,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 922,84</t>
+          <t>-47,14; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 354,66</t>
+          <t>-18,94; 365,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 567,89</t>
+          <t>-13,03; 595,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,93</t>
+          <t>-0,42; 4,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,5</t>
+          <t>4,86; 12,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,93</t>
+          <t>3,23; 10,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 141,3</t>
+          <t>-9,03; 139,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,71; 246,9</t>
+          <t>52,77; 226,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,42; 222,81</t>
+          <t>40,58; 223,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,95</t>
+          <t>-0,68; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,5</t>
+          <t>4,48; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,87</t>
+          <t>4,66; 9,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 78,45</t>
+          <t>-10,33; 81,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,44; 154,92</t>
+          <t>49,24; 149,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,01; 253,14</t>
+          <t>79,05; 250,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,6</t>
+          <t>2,56; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,17</t>
+          <t>4,56; 10,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,11</t>
+          <t>4,13; 10,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 166,63</t>
+          <t>25,62; 153,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,02; 263,83</t>
+          <t>58,18; 248,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,47; 220,48</t>
+          <t>55,18; 230,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,4</t>
+          <t>1,62; 6,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,64</t>
+          <t>4,02; 9,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,53</t>
+          <t>1,14; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 124,29</t>
+          <t>18,59; 119,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,69; 160,76</t>
+          <t>45,69; 149,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 99,25</t>
+          <t>11,9; 97,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,68</t>
+          <t>2,09; 4,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,05</t>
+          <t>5,97; 9,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,44</t>
+          <t>4,64; 7,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,47; 85,5</t>
+          <t>31,65; 83,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,76; 139,78</t>
+          <t>76,52; 141,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,08; 136,57</t>
+          <t>68,74; 137,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
